--- a/testdata/invalid-testdata/excel2json/resources-invalid-property.xlsx
+++ b/testdata/invalid-testdata/excel2json/resources-invalid-property.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB78CE9B-6CF5-0145-8187-2C0A7B897E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="36240" yWindow="13460" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="classes"/>
-    <sheet r:id="rId2" sheetId="2" name="Owner"/>
-    <sheet r:id="rId3" sheetId="3" name="Title"/>
-    <sheet r:id="rId4" sheetId="4" name="GenericAnthroponym"/>
-    <sheet r:id="rId5" sheetId="5" name="FamilyMember"/>
-    <sheet r:id="rId6" sheetId="6" name="MentionedPerson"/>
-    <sheet r:id="rId7" sheetId="7" name="Alias"/>
-    <sheet r:id="rId8" sheetId="8" name="Image"/>
-    <sheet r:id="rId9" sheetId="9" name="Video"/>
-    <sheet r:id="rId10" sheetId="10" name="Audio"/>
-    <sheet r:id="rId11" sheetId="11" name="ZIP"/>
-    <sheet r:id="rId12" sheetId="12" name="PDFDocument"/>
+    <sheet name="classes" sheetId="1" r:id="rId1"/>
+    <sheet name="Owner" sheetId="2" r:id="rId2"/>
+    <sheet name="Title" sheetId="3" r:id="rId3"/>
+    <sheet name="GenericAnthroponym" sheetId="4" r:id="rId4"/>
+    <sheet name="FamilyMember" sheetId="5" r:id="rId5"/>
+    <sheet name="MentionedPerson" sheetId="6" r:id="rId6"/>
+    <sheet name="Alias" sheetId="7" r:id="rId7"/>
+    <sheet name="Image" sheetId="8" r:id="rId8"/>
+    <sheet name="Video" sheetId="9" r:id="rId9"/>
+    <sheet name="Audio" sheetId="10" r:id="rId10"/>
+    <sheet name="ZIP" sheetId="11" r:id="rId11"/>
+    <sheet name="PDFDocument" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="137">
   <si>
     <t>property</t>
   </si>
@@ -227,9 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>invalid</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -445,8 +448,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,13 +465,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFed7d31"/>
+      <color rgb="FFED7D31"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070c0"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -498,12 +500,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFe7e6e6"/>
+        <fgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFbfbfbf"/>
+        <fgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,16 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,92 +543,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,10 +636,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -678,71 +677,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,7 +769,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -793,11 +792,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -806,13 +805,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -822,7 +821,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -831,7 +830,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -840,7 +839,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -848,10 +847,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -916,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -924,565 +923,440 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="C8" s="3"/>
+      <c r="G8" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="7" t="s">
+      <c r="H8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="L8" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>124</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="7"/>
       <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="M9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>126</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="7" t="s">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>130</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
       <c r="F12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>135</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="7" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="I16" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="17" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1498,13 +1372,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1526,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1534,13 +1408,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1570,13 +1444,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1598,217 +1472,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="4">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="4">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>66</v>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="7"/>
-      <c r="B18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="7"/>
-      <c r="B19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1824,31 +1675,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="4">
@@ -1856,59 +1706,55 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="4">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
@@ -1916,11 +1762,11 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="4">
@@ -1928,11 +1774,11 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="4">
@@ -1940,55 +1786,49 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="7"/>
-      <c r="B13" s="21" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1996,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2004,235 +1844,214 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,69 +2059,67 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2310,11 +2127,11 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2322,21 +2139,21 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2344,87 +2161,80 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,7 +2242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2440,27 +2250,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2470,135 +2278,127 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2606,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2614,15 +2414,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="12" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2630,47 +2429,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2686,13 +2480,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2700,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2722,13 +2516,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
